--- a/src/main/resources/testdata/Check_ThatUserCanSearchByNewAdded_GF_Name.xlsx
+++ b/src/main/resources/testdata/Check_ThatUserCanSearchByNewAdded_GF_Name.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Data#</t>
   </si>
@@ -36,10 +36,25 @@
     <t xml:space="preserve">sourcespecies </t>
   </si>
   <si>
-    <t>chromosome</t>
-  </si>
-  <si>
-    <t>check that user can search for a new added GF &gt;&gt; CHROMOSOME</t>
+    <t>METLVNLIVASFLYKLGLFSSLGVSQSHYVKANGLSTTTKLSSICKTSDLTIHKKSNRTRKFSVSAGYRDGSRSGSSGDFIAGFLLGGAVFGAVAYIFAPQIRRSVLNEEDEYGFEKPKQPTYYDEGLEKTRETLNEKIGQLNSAIDNVSSRLRGREKNTSSLNVPVETDPEVEATT</t>
+  </si>
+  <si>
+    <t>name_GF</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>GF_name_test</t>
+  </si>
+  <si>
+    <t>check that user can search by new added GF&gt;&gt; Name</t>
   </si>
 </sst>
 </file>
@@ -383,8 +398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +408,7 @@
     <col min="2" max="2" width="29.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="78.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -423,10 +438,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -437,6 +452,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
